--- a/SocialMedia.xlsx
+++ b/SocialMedia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13900" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一期功能点细化" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
   <si>
     <t>据无霸O2O一期功能需求清单</t>
   </si>
@@ -579,6 +579,129 @@
   </si>
   <si>
     <t>管理员可以通过EXCEL导入导出用户信息</t>
+  </si>
+  <si>
+    <t>播放音乐</t>
+  </si>
+  <si>
+    <t>播放已购音乐</t>
+  </si>
+  <si>
+    <t>播放指定歌单</t>
+  </si>
+  <si>
+    <t>下一首播放</t>
+  </si>
+  <si>
+    <t>观看音乐MV</t>
+  </si>
+  <si>
+    <t>播放设置</t>
+  </si>
+  <si>
+    <t>顺序播放</t>
+  </si>
+  <si>
+    <t>单曲循环</t>
+  </si>
+  <si>
+    <t>随机播放</t>
+  </si>
+  <si>
+    <t>心动模式</t>
+  </si>
+  <si>
+    <t>播放倍速</t>
+  </si>
+  <si>
+    <t>0.5x</t>
+  </si>
+  <si>
+    <t>0.75x</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>1.25x</t>
+  </si>
+  <si>
+    <t>1.5x</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>歌单</t>
+  </si>
+  <si>
+    <t>添加音乐到指定歌单</t>
+  </si>
+  <si>
+    <t>创建歌单</t>
+  </si>
+  <si>
+    <t>收藏歌单</t>
+  </si>
+  <si>
+    <t>播放列表</t>
+  </si>
+  <si>
+    <t>当前播放</t>
+  </si>
+  <si>
+    <t>上次播放</t>
+  </si>
+  <si>
+    <t>历史播放</t>
+  </si>
+  <si>
+    <t>云盘</t>
+  </si>
+  <si>
+    <t>上传云盘</t>
+  </si>
+  <si>
+    <t>专辑</t>
+  </si>
+  <si>
+    <t>查看音乐专辑</t>
+  </si>
+  <si>
+    <t>下载音乐</t>
+  </si>
+  <si>
+    <t>订阅电台</t>
+  </si>
+  <si>
+    <t>我的听歌历史</t>
+  </si>
+  <si>
+    <t>我赞过的音乐</t>
+  </si>
+  <si>
+    <t>我赞过的歌单</t>
+  </si>
+  <si>
+    <t>定时关闭</t>
+  </si>
+  <si>
+    <t>装扮</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>均衡器</t>
+  </si>
+  <si>
+    <t>边听边存</t>
+  </si>
+  <si>
+    <t>我的评论</t>
+  </si>
+  <si>
+    <t>我的基本信息</t>
   </si>
 </sst>
 </file>
@@ -586,8 +709,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -621,9 +744,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,7 +798,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,91 +865,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,17 +882,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -804,18 +927,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -828,19 +939,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,25 +993,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,67 +1047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,13 +1065,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,26 +1186,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,28 +1216,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,6 +1249,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1155,160 +1267,171 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1350,10 +1473,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1375,20 +1498,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1396,9 +1507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,7 +1564,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1878,12 +1985,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="19.6" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" ht="16.8" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -1909,7 +2016,7 @@
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1921,7 +2028,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="17" t="s">
@@ -1933,7 +2040,7 @@
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1941,7 +2048,7 @@
       <c r="A6" s="19"/>
       <c r="B6" s="18"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1951,7 +2058,7 @@
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1959,7 +2066,7 @@
       <c r="A8" s="19"/>
       <c r="B8" s="18"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1969,7 +2076,7 @@
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1979,7 +2086,7 @@
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1989,7 +2096,7 @@
       <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1999,7 +2106,7 @@
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2009,7 +2116,7 @@
       <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="19"/>
@@ -2019,7 +2126,7 @@
       <c r="C14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="19"/>
@@ -2027,7 +2134,7 @@
       <c r="C15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="19"/>
@@ -2035,7 +2142,7 @@
       <c r="C16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="19"/>
@@ -2043,7 +2150,7 @@
       <c r="C17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="19"/>
@@ -2053,7 +2160,7 @@
       <c r="C18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="19"/>
@@ -2061,7 +2168,7 @@
       <c r="C19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="19"/>
@@ -2069,7 +2176,7 @@
       <c r="C20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="19"/>
@@ -2077,7 +2184,7 @@
       <c r="C21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="19"/>
@@ -2085,7 +2192,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="19"/>
@@ -2093,7 +2200,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="15"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="19"/>
@@ -2101,7 +2208,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="15"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="19"/>
@@ -2111,7 +2218,7 @@
       <c r="C25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2121,7 +2228,7 @@
         <v>41</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="15"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="23"/>
@@ -2129,7 +2236,7 @@
         <v>42</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="13" t="s">
@@ -2139,7 +2246,7 @@
         <v>44</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="13"/>
@@ -2147,7 +2254,7 @@
         <v>45</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="13"/>
@@ -2155,7 +2262,7 @@
         <v>46</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13"/>
@@ -2163,791 +2270,791 @@
         <v>47</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="28"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="28"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="27"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="28"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" ht="14.8" spans="1:4">
-      <c r="A36" s="28"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="29" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="26" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="28"/>
-      <c r="B37" s="25" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="27"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="28"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="28"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="28"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" ht="14.8" spans="1:4">
-      <c r="A41" s="28"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="29" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="28"/>
-      <c r="B42" s="25" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="27"/>
+      <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="28"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="27"/>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="28"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="27"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="31"/>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="27"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="28"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="27"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" ht="14.8" spans="1:4">
-      <c r="A48" s="28"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="29" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="28"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="28"/>
-      <c r="B50" s="24" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="27"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="26" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="27"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="26" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="27"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="26" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="27"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="27"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="33"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26" t="s">
+      <c r="A55" s="28"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="27"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="33"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26" t="s">
+      <c r="A56" s="28"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="27"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="33"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26" t="s">
+      <c r="A57" s="28"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="27"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="33"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="27"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="33"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="27"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="33"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="27"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="33"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26" t="s">
+      <c r="A61" s="28"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="27"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="33"/>
-      <c r="B62" s="25" t="s">
+      <c r="A62" s="28"/>
+      <c r="B62" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="27"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="33"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26" t="s">
+      <c r="A63" s="28"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="27"/>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="33"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26" t="s">
+      <c r="A64" s="28"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="33"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="66" ht="14.8" spans="1:4">
-      <c r="A66" s="33"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="29" t="s">
+      <c r="A66" s="28"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="26" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="33"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26" t="s">
+      <c r="A67" s="28"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="24" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="33"/>
-      <c r="B68" s="34" t="s">
+      <c r="A68" s="28"/>
+      <c r="B68" s="29" t="s">
         <v>100</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="27"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="33"/>
-      <c r="B69" s="35"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D69" s="27"/>
+      <c r="D69" s="24"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="33"/>
-      <c r="B70" s="35"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="27"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="36"/>
-      <c r="B71" s="37"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D71" s="27"/>
+      <c r="D71" s="24"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="40" t="s">
+      <c r="C72" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D72" s="41"/>
+      <c r="D72" s="36"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="42"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="40" t="s">
+      <c r="A73" s="37"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="41" t="s">
+      <c r="D73" s="36" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="42"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="40" t="s">
+      <c r="A74" s="37"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="41" t="s">
+      <c r="D74" s="36" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="42"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="40" t="s">
+      <c r="A75" s="37"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="36" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="76" ht="14.8" spans="1:4">
-      <c r="A76" s="42"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="44" t="s">
+      <c r="A76" s="37"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="36" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="42"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="40" t="s">
+      <c r="A77" s="37"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D77" s="41"/>
+      <c r="D77" s="36"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="42"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="40" t="s">
+      <c r="A78" s="37"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D78" s="41"/>
+      <c r="D78" s="36"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="42"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="40" t="s">
+      <c r="A79" s="37"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="41"/>
+      <c r="D79" s="36"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="42"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="40" t="s">
+      <c r="A80" s="37"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="36" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="42"/>
-      <c r="B81" s="45" t="s">
+      <c r="A81" s="37"/>
+      <c r="B81" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="40" t="s">
+      <c r="C81" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="42"/>
-      <c r="B82" s="46" t="s">
+      <c r="A82" s="37"/>
+      <c r="B82" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="47" t="s">
+      <c r="C82" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D82" s="48"/>
+      <c r="D82" s="43"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="42"/>
-      <c r="B83" s="46" t="s">
+      <c r="A83" s="37"/>
+      <c r="B83" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="48"/>
+      <c r="D83" s="43"/>
     </row>
     <row r="84" ht="14.8" spans="1:4">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D84" s="50"/>
+      <c r="D84" s="45"/>
     </row>
     <row r="85" ht="14.8" spans="1:4">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="29" t="s">
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="26" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="86" ht="14.8" spans="1:4">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="29" t="s">
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D86" s="50"/>
+      <c r="D86" s="45"/>
     </row>
     <row r="87" ht="14.8" spans="1:4">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="29" t="s">
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="45" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="88" ht="14.8" spans="1:4">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="29" t="s">
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D88" s="50"/>
+      <c r="D88" s="45"/>
     </row>
     <row r="89" ht="14.8" spans="1:4">
-      <c r="A89" s="49"/>
-      <c r="B89" s="25" t="s">
+      <c r="A89" s="44"/>
+      <c r="B89" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D89" s="50"/>
+      <c r="D89" s="45"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="49"/>
-      <c r="B90" s="25" t="s">
+      <c r="A90" s="44"/>
+      <c r="B90" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D90" s="27"/>
+      <c r="D90" s="24"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D91" s="27"/>
+      <c r="D91" s="24"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="33"/>
-      <c r="B92" s="25" t="s">
+      <c r="A92" s="28"/>
+      <c r="B92" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D92" s="27"/>
+      <c r="D92" s="24"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="33"/>
-      <c r="B93" s="24" t="s">
+      <c r="A93" s="28"/>
+      <c r="B93" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D93" s="51"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="33"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="26" t="s">
+      <c r="A94" s="28"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D94" s="51" t="s">
+      <c r="D94" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="53"/>
+      <c r="A95" s="46"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="47"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="52" t="s">
+      <c r="A96" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B96" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="53"/>
+      <c r="C96" s="47"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="52"/>
-      <c r="B97" s="52" t="s">
+      <c r="A97" s="46"/>
+      <c r="B97" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="15" t="s">
+      <c r="E97" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="52"/>
-      <c r="B98" s="52"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="46"/>
       <c r="D98" s="8"/>
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="52"/>
-      <c r="B99" s="52"/>
+      <c r="A99" s="46"/>
+      <c r="B99" s="46"/>
       <c r="D99" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="15" t="s">
+      <c r="E99" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="52"/>
-      <c r="B100" s="52"/>
+      <c r="A100" s="46"/>
+      <c r="B100" s="46"/>
       <c r="D100" s="9"/>
-      <c r="E100" s="15" t="s">
+      <c r="E100" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="52"/>
+      <c r="A101" s="46"/>
       <c r="D101" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E101" s="15" t="s">
+      <c r="E101" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="52"/>
+      <c r="A102" s="46"/>
       <c r="D102" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E102" s="15" t="s">
+      <c r="E102" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="52"/>
+      <c r="A103" s="46"/>
       <c r="D103" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="15" t="s">
+      <c r="E103" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="52"/>
+      <c r="A104" s="46"/>
       <c r="D104" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="52"/>
+      <c r="A105" s="46"/>
       <c r="D105" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E105" s="15"/>
+      <c r="E105" s="16"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="52"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="53"/>
+      <c r="A106" s="46"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="47"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="52"/>
-      <c r="B107" s="52"/>
-      <c r="C107" s="53"/>
+      <c r="A107" s="46"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="47"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="52"/>
-      <c r="B108" s="52"/>
-      <c r="C108" s="53"/>
+      <c r="A108" s="46"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="47"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="52"/>
-      <c r="B109" s="52"/>
-      <c r="C109" s="53" t="s">
+      <c r="A109" s="46"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="52"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="53" t="s">
+      <c r="A110" s="46"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="52"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="53" t="s">
+      <c r="A111" s="46"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="47" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="52"/>
-      <c r="B112" s="52" t="s">
+      <c r="A112" s="46"/>
+      <c r="B112" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C112" s="53" t="s">
+      <c r="C112" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="52"/>
-      <c r="B113" s="52"/>
-      <c r="C113" s="53" t="s">
+      <c r="A113" s="46"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="47" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="52"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="53" t="s">
+      <c r="A114" s="46"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="47" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="52"/>
-      <c r="C115" s="53" t="s">
+      <c r="B115" s="46"/>
+      <c r="C115" s="47" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="52"/>
-      <c r="C116" s="53" t="s">
+      <c r="B116" s="46"/>
+      <c r="C116" s="47" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="52" t="s">
+      <c r="A118" s="46" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="52"/>
+      <c r="A119" s="46"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="52"/>
+      <c r="A120" s="46"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="52" t="s">
+      <c r="A121" s="46" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="52"/>
+      <c r="A122" s="46"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="52"/>
+      <c r="A123" s="46"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="52" t="s">
+      <c r="A124" s="46" t="s">
         <v>154</v>
       </c>
       <c r="B124" t="s">
@@ -2955,44 +3062,44 @@
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="52"/>
+      <c r="A125" s="46"/>
       <c r="B125" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="52"/>
+      <c r="A126" s="46"/>
       <c r="B126" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="52" t="s">
+      <c r="A127" s="46" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="52"/>
+      <c r="A128" s="46"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="52"/>
+      <c r="A129" s="46"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="52" t="s">
+      <c r="A130" s="46" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="52"/>
+      <c r="A131" s="46"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="52"/>
+      <c r="A132" s="46"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="52" t="s">
+      <c r="A134" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="B134" s="52" t="s">
+      <c r="B134" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C134" t="s">
@@ -3000,29 +3107,29 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="52"/>
-      <c r="B135" s="52"/>
+      <c r="A135" s="46"/>
+      <c r="B135" s="46"/>
       <c r="C135" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="52"/>
-      <c r="B136" s="52"/>
+      <c r="A136" s="46"/>
+      <c r="B136" s="46"/>
       <c r="C136" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="52"/>
-      <c r="B137" s="52"/>
+      <c r="A137" s="46"/>
+      <c r="B137" s="46"/>
       <c r="C137" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="52"/>
-      <c r="B138" s="52" t="s">
+      <c r="A138" s="46"/>
+      <c r="B138" s="46" t="s">
         <v>158</v>
       </c>
       <c r="C138" t="s">
@@ -3030,22 +3137,22 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="52"/>
-      <c r="B139" s="52"/>
+      <c r="A139" s="46"/>
+      <c r="B139" s="46"/>
       <c r="C139" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="52"/>
-      <c r="B140" s="52"/>
+      <c r="A140" s="46"/>
+      <c r="B140" s="46"/>
       <c r="C140" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="52"/>
-      <c r="B141" s="52" t="s">
+      <c r="A141" s="46"/>
+      <c r="B141" s="46" t="s">
         <v>153</v>
       </c>
       <c r="C141" t="s">
@@ -3053,22 +3160,22 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="52"/>
-      <c r="B142" s="52"/>
+      <c r="A142" s="46"/>
+      <c r="B142" s="46"/>
       <c r="C142" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="52"/>
-      <c r="B143" s="52"/>
+      <c r="A143" s="46"/>
+      <c r="B143" s="46"/>
       <c r="C143" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="52"/>
-      <c r="B144" s="52" t="s">
+      <c r="A144" s="46"/>
+      <c r="B144" s="46" t="s">
         <v>170</v>
       </c>
       <c r="C144" t="s">
@@ -3076,27 +3183,27 @@
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="52"/>
-      <c r="B145" s="52"/>
+      <c r="A145" s="46"/>
+      <c r="B145" s="46"/>
       <c r="C145" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="52"/>
-      <c r="B146" s="52"/>
+      <c r="A146" s="46"/>
+      <c r="B146" s="46"/>
       <c r="C146" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="52"/>
+      <c r="A147" s="46"/>
       <c r="B147" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="52"/>
+      <c r="A148" s="46"/>
       <c r="B148" t="s">
         <v>152</v>
       </c>
@@ -3163,10 +3270,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3299,7 +3406,7 @@
       <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3308,7 +3415,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3319,7 +3426,7 @@
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3330,7 +3437,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3341,7 +3448,7 @@
       <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3352,7 +3459,7 @@
       <c r="D17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3363,7 +3470,7 @@
       <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3374,7 +3481,7 @@
       <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3385,7 +3492,7 @@
       <c r="D20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3419,7 +3526,7 @@
       <c r="D24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7"/>
@@ -3428,7 +3535,7 @@
       <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7"/>
@@ -3437,7 +3544,7 @@
       <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7"/>
@@ -3446,7 +3553,7 @@
       <c r="D27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7"/>
@@ -3457,7 +3564,7 @@
       <c r="D28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7"/>
@@ -3466,7 +3573,7 @@
       <c r="D29" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7"/>
@@ -3475,7 +3582,7 @@
       <c r="D30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7"/>
@@ -3484,7 +3591,7 @@
       <c r="D31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7"/>
@@ -3493,7 +3600,7 @@
         <v>36</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="7"/>
@@ -3502,7 +3609,7 @@
         <v>37</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7"/>
@@ -3511,7 +3618,7 @@
         <v>38</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="7"/>
@@ -3522,7 +3629,7 @@
       <c r="D35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3533,7 +3640,7 @@
         <v>41</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="7"/>
@@ -3542,7 +3649,7 @@
         <v>42</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="7"/>
@@ -3553,7 +3660,7 @@
         <v>44</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="7"/>
@@ -3562,7 +3669,7 @@
         <v>45</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="7"/>
@@ -3571,7 +3678,7 @@
         <v>46</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="14"/>
@@ -3580,14 +3687,295 @@
         <v>47</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="15"/>
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="15"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="15"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="15"/>
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="15"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="15"/>
+      <c r="B76" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="15"/>
+      <c r="B77" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="15"/>
+      <c r="B78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="15"/>
+      <c r="B79" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="15"/>
+      <c r="B80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="15"/>
+      <c r="B81" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="15"/>
+      <c r="B82" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="15"/>
+      <c r="B83" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="15"/>
+      <c r="B84" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="15"/>
+      <c r="B85" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="15"/>
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A41"/>
+    <mergeCell ref="A44:A86"/>
     <mergeCell ref="B15:B37"/>
     <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
     <mergeCell ref="C4:C23"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C31"/>
